--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3939.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3939.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.12732578217221</v>
+        <v>0.6747177243232727</v>
       </c>
       <c r="B1">
-        <v>1.603323848265878</v>
+        <v>0.9657843708992004</v>
       </c>
       <c r="C1">
-        <v>2.992940370841887</v>
+        <v>4.754477500915527</v>
       </c>
       <c r="D1">
-        <v>6.99010347314794</v>
+        <v>1.929329037666321</v>
       </c>
       <c r="E1">
-        <v>1.974898066710443</v>
+        <v>1.163437366485596</v>
       </c>
     </row>
   </sheetData>
